--- a/IGGLE-4/IGGLE ISA.xlsx
+++ b/IGGLE-4/IGGLE ISA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\hamzah\IGGLE\IGGLE-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC02C303-9EAF-4F27-9EAF-ADBEFEB98672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB581FB-378B-4E05-8855-BD8A1C9CDF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1E9AABC6-A64C-40ED-9444-26CCF299B836}</author>
+    <author>tc={A48C1D9D-9520-482A-AF70-04747F629C86}</author>
+    <author>tc={722698EC-F417-4563-88DB-A04AA8DEF1B2}</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{1E9AABC6-A64C-40ED-9444-26CCF299B836}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    *X means memory address X</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{A48C1D9D-9520-482A-AF70-04747F629C86}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Black = 0, White = 1</t>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="2" shapeId="0" xr:uid="{722698EC-F417-4563-88DB-A04AA8DEF1B2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Symbol for operand</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
@@ -124,13 +160,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -153,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -184,92 +226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -315,15 +271,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,6 +399,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,28 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -378,16 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,6 +444,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Hamzah Ahmed" id="{52143B68-4012-4BCC-B767-642C107C6B1C}" userId="6a963498e0c81d6e" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -668,12 +713,26 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B2" dT="2022-11-13T10:26:38.78" personId="{52143B68-4012-4BCC-B767-642C107C6B1C}" id="{1E9AABC6-A64C-40ED-9444-26CCF299B836}">
+    <text>*X means memory address X</text>
+  </threadedComment>
+  <threadedComment ref="C2" dT="2022-11-13T10:25:42.14" personId="{52143B68-4012-4BCC-B767-642C107C6B1C}" id="{A48C1D9D-9520-482A-AF70-04747F629C86}">
+    <text>Black = 0, White = 1</text>
+  </threadedComment>
+  <threadedComment ref="G2" dT="2022-11-13T10:26:07.00" personId="{52143B68-4012-4BCC-B767-642C107C6B1C}" id="{722698EC-F417-4563-88DB-A04AA8DEF1B2}">
+    <text>Symbol for operand</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,210 +745,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="4" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="4" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="4" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="4" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="4" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="4" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="5" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -901,5 +960,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>